--- a/assets/files/DFS.xlsx
+++ b/assets/files/DFS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Domain</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Score for all Levels</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,10 +595,12 @@
     <col min="11" max="11" width="37" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -610,7 +615,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -653,8 +658,11 @@
       <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="9">
         <v>4</v>
       </c>
@@ -686,8 +694,11 @@
         <f>SUM(E4:M4)</f>
         <v>35</v>
       </c>
+      <c r="O4" s="2">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -718,8 +729,12 @@
         <f t="shared" ref="N5" si="0">SUM(E5:M5)</f>
         <v>11</v>
       </c>
+      <c r="O5" s="6">
+        <f>N5/102*100</f>
+        <v>10.784313725490197</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
